--- a/DataSource/Datas/__beans__.xlsx
+++ b/DataSource/Datas/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -95,37 +95,25 @@
     <t>字段变体</t>
   </si>
   <si>
-    <t>Attr</t>
-  </si>
-  <si>
-    <t>v_final</t>
+    <t>AttrGroup</t>
+  </si>
+  <si>
+    <t>atk</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>v_base</t>
-  </si>
-  <si>
-    <t>v_affect</t>
-  </si>
-  <si>
-    <t>p_affect</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>ActionValue</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>Speed</t>
+    <t>def</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
 </sst>
 </file>
@@ -1082,13 +1070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
@@ -1227,40 +1215,12 @@
       </c>
     </row>
     <row r="8" spans="10:12">
-      <c r="J8" s="4" t="s">
+      <c r="J8" t="s">
         <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="10:10">
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="10:10">
-      <c r="J12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
